--- a/src/main/resources/template/excel/export/supplierExport.xlsx
+++ b/src/main/resources/template/excel/export/supplierExport.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <author>lijy02</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>供应商编码</t>
   </si>
@@ -595,9 +600,6 @@
     <t>${obj.taxIdentificationNum}</t>
   </si>
   <si>
-    <t>${obj.stampsType}</t>
-  </si>
-  <si>
     <t>${obj.bankAccountName}</t>
   </si>
   <si>
@@ -626,20 +628,20 @@
   </si>
   <si>
     <t>${obj.freezeBusinessName}</t>
+  </si>
+  <si>
+    <t>${obj.stampsTypeName}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,158 +675,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,198 +702,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1047,251 +730,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1333,58 +774,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1674,15 +1076,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.625" style="3" customWidth="1"/>
@@ -1717,7 +1118,7 @@
     <col min="32" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:32">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1813,7 +1214,7 @@
       </c>
       <c r="AF1" s="14"/>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -1875,41 +1276,41 @@
         <v>50</v>
       </c>
       <c r="U2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="AF2" s="15"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1943,7 +1344,7 @@
       <c r="AE3" s="9"/>
       <c r="AF3" s="15"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1977,7 +1378,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="15"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2011,7 +1412,7 @@
       <c r="AE5" s="9"/>
       <c r="AF5" s="15"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2045,7 +1446,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="15"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2079,7 +1480,7 @@
       <c r="AE7" s="9"/>
       <c r="AF7" s="15"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2114,12 +1515,12 @@
       <c r="AF8" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576 U$1:U$1048576 Y$1:Y$1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 U1:U1048576 Y1:Y1048576"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/supplierExport.xlsx
+++ b/src/main/resources/template/excel/export/supplierExport.xlsx
@@ -33,31 +33,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">OKDEER:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="A</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">2")
+jx:area(lastCell="AE2")
 </t>
         </r>
       </text>
@@ -71,31 +47,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">OKDEER:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="A</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>F</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">2")
+jx:each(items="reportList" var="obj" lastCell="AE2")
 </t>
         </r>
       </text>
@@ -833,7 +785,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -868,7 +820,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1079,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/supplierExport.xlsx
+++ b/src/main/resources/template/excel/export/supplierExport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23550" windowHeight="7155"/>
+    <workbookView windowWidth="21315" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
@@ -17,10 +17,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>zhangq</author>
     <author>lijy02</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -28,13 +29,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">OKDEER:
-jx:area(lastCell="I2")
-</t>
+          <t>jx:area(lastCell="I3")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -42,9 +41,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">OKDEER:
-jx:each(items="reportList" var="obj" lastCell="I2")
-</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="I3")</t>
         </r>
       </text>
     </comment>
@@ -53,79 +50,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+  <si>
+    <t>供应商档案</t>
+  </si>
   <si>
     <t>供应商编码</t>
   </si>
   <si>
+    <t>供应商名称</t>
+  </si>
+  <si>
+    <t>经营方式</t>
+  </si>
+  <si>
     <t>所在区域</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>所属机构</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
     <t>${obj.supplierCode}</t>
   </si>
   <si>
     <t>${obj.supplierName}</t>
   </si>
   <si>
+    <t>${obj.saleWayName}</t>
+  </si>
+  <si>
+    <t>${obj.supplierAreaName}</t>
+  </si>
+  <si>
+    <t>${obj.statusStr}</t>
+  </si>
+  <si>
+    <t>${obj.contcat}</t>
+  </si>
+  <si>
+    <t>${obj.mobile}</t>
+  </si>
+  <si>
     <t>${obj.branchName}</t>
   </si>
   <si>
-    <t>${obj.supplierAreaName}</t>
-  </si>
-  <si>
-    <t>${obj.saleWayName}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.statusStr}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.contcat}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.mobile}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.createUserName}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属机构</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>经营方式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,24 +141,170 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,12 +313,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -201,44 +527,331 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -285,7 +898,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,7 +933,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,126 +1141,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="3" customWidth="1"/>
     <col min="5" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="20.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="20.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="I3" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+    <row r="4" s="3" customFormat="1" spans="1:7">
+      <c r="A4" s="4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+    <row r="5" s="3" customFormat="1" spans="1:7">
+      <c r="A5" s="4"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+    <row r="6" s="3" customFormat="1" spans="1:7">
+      <c r="A6" s="4"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+    <row r="7" s="3" customFormat="1" spans="1:7">
+      <c r="A7" s="4"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+    <row r="8" s="3" customFormat="1" spans="1:7">
+      <c r="A8" s="4"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
     </row>
+    <row r="9" s="3" customFormat="1" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/supplierExport.xlsx
+++ b/src/main/resources/template/excel/export/supplierExport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,9 +31,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="I4")</t>
+          <t>jx:area(lastCell="I3")</t>
         </r>
       </text>
     </comment>
@@ -43,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="I3")</t>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>供应商档案</t>
   </si>
@@ -111,18 +113,12 @@
   </si>
   <si>
     <t>${obj.createUserName}</t>
-  </si>
-  <si>
-    <t>总计：</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,12 +131,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -148,6 +146,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -155,22 +154,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -216,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -242,83 +245,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -338,7 +270,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -373,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,7 +340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -706,19 +638,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
